--- a/wing/input_data/point_loads_v1.xlsx
+++ b/wing/input_data/point_loads_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/cj20794_bristol_ac_uk/Documents/AEROSPACE Y4/AVDASI 4/structures/wing/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{1F3B0EDE-EC22-A241-BB22-CF4F7A7036D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD6FAC66-D2C2-E944-9716-A8C9E0210143}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{1F3B0EDE-EC22-A241-BB22-CF4F7A7036D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69127C6F-E929-1443-82AF-CD4F88DB228D}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{4548A164-3EAC-244F-9F88-3C9D0999CDD4}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,12 +477,12 @@
         <v>10.68</v>
       </c>
       <c r="C3" s="1">
-        <f>6400*1.15</f>
-        <v>7359.9999999999991</v>
+        <f>-6400*1.15</f>
+        <v>-7359.9999999999991</v>
       </c>
       <c r="D3" s="1">
-        <f>6400*1.1</f>
-        <v>7040.0000000000009</v>
+        <f>-6400*1.1</f>
+        <v>-7040.0000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
